--- a/classification/droptc/neo-bert/freeze/87212562/prediction.xlsx
+++ b/classification/droptc/neo-bert/freeze/87212562/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8083478808403015</v>
+        <v>0.724372923374176</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5498941540718079</v>
+        <v>0.5479755401611328</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8354421854019165</v>
+        <v>0.564656138420105</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4836302399635315</v>
+        <v>0.7010892033576965</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4999102652072906</v>
+        <v>0.7364176511764526</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.8838183283805847</v>
       </c>
     </row>
     <row r="8">
@@ -651,14 +651,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7297294139862061</v>
+        <v>0.8247411251068115</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3788249492645264</v>
+        <v>0.3047972023487091</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9565853476524353</v>
+        <v>0.643220841884613</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9497228860855103</v>
+        <v>0.842642605304718</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7654677629470825</v>
+        <v>0.5208762288093567</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.716237485408783</v>
+        <v>0.851811408996582</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5154184103012085</v>
+        <v>0.5774444937705994</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.8884135484695435</v>
       </c>
     </row>
     <row r="16">
@@ -875,14 +875,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8391321897506714</v>
+        <v>0.3580667674541473</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3788249492645264</v>
+        <v>0.9396287202835083</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3939403295516968</v>
+        <v>0.9306249022483826</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.9086193442344666</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.9726614952087402</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8760925531387329</v>
+        <v>0.6116025447845459</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4791485667228699</v>
+        <v>0.9202753305435181</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6437613368034363</v>
+        <v>0.4638783037662506</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6730481386184692</v>
+        <v>0.7423975467681885</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6632767915725708</v>
+        <v>0.7667295932769775</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.3467589914798737</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9688951373100281</v>
+        <v>0.6767413020133972</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9706861972808838</v>
+        <v>0.9184677004814148</v>
       </c>
     </row>
     <row r="29">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9610702991485596</v>
+        <v>0.8049178719520569</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7096468806266785</v>
+        <v>0.9283021688461304</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9217507839202881</v>
+        <v>0.4254888594150543</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8493021130561829</v>
+        <v>0.8290252685546875</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9655225872993469</v>
+        <v>0.9592940211296082</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.9613770842552185</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.8075225353240967</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9610159993171692</v>
+        <v>0.357714056968689</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4326611757278442</v>
+        <v>0.9008899331092834</v>
       </c>
     </row>
     <row r="38">
@@ -1491,14 +1491,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.699696958065033</v>
+        <v>0.804230272769928</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8247070908546448</v>
+        <v>0.4605072736740112</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9208796620368958</v>
+        <v>0.8825289607048035</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5518379807472229</v>
+        <v>0.564656138420105</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4980758726596832</v>
+        <v>0.5175785422325134</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7096589803695679</v>
+        <v>0.9396287202835083</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4021060168743134</v>
+        <v>0.3047972023487091</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8682397603988647</v>
+        <v>0.9331029057502747</v>
       </c>
     </row>
     <row r="46">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1719,10 +1719,10 @@
         </is>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.828207790851593</v>
+        <v>0.4264956414699554</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7454019784927368</v>
+        <v>0.7565521001815796</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8513959646224976</v>
+        <v>0.487098753452301</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4757444560527802</v>
+        <v>0.8368661403656006</v>
       </c>
     </row>
     <row r="50">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7641497850418091</v>
+        <v>0.6815632581710815</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6213806867599487</v>
+        <v>0.9630889892578125</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.929438591003418</v>
+        <v>0.6108542084693909</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7053418755531311</v>
+        <v>0.8573175668716431</v>
       </c>
     </row>
     <row r="54">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4472375214099884</v>
+        <v>0.5774309039115906</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5125277638435364</v>
+        <v>0.9008333683013916</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6224995851516724</v>
+        <v>0.9592004418373108</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7600646615028381</v>
+        <v>0.9173850417137146</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3247043788433075</v>
+        <v>0.8059320449829102</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9243894815444946</v>
+        <v>0.7423975467681885</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.7592610120773315</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3884379863739014</v>
+        <v>0.8501265048980713</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7778666615486145</v>
+        <v>0.3780487775802612</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9604416489601135</v>
+        <v>0.9390057921409607</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9610702991485596</v>
+        <v>0.7027085423469543</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.802747368812561</v>
+        <v>0.8185596466064453</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.9361488819122314</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.4793646931648254</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4785155951976776</v>
+        <v>0.7534978985786438</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7484671473503113</v>
+        <v>0.8788783550262451</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9555691480636597</v>
+        <v>0.9163084626197815</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7574840784072876</v>
+        <v>0.4326514601707458</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8231579065322876</v>
+        <v>0.9036511182785034</v>
       </c>
     </row>
     <row r="73">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.903229832649231</v>
+        <v>0.4250708222389221</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6439342498779297</v>
+        <v>0.9322566986083984</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9593504071235657</v>
+        <v>0.8581536412239075</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8393717408180237</v>
+        <v>0.5202771425247192</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8364729285240173</v>
+        <v>0.4675707221031189</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9831650257110596</v>
+        <v>0.3955797851085663</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8821849822998047</v>
+        <v>0.7172471880912781</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.7784066796302795</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8700818419456482</v>
+        <v>0.9592940211296082</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5911749601364136</v>
+        <v>0.6298314332962036</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3974263072013855</v>
+        <v>0.8040649890899658</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4008449912071228</v>
+        <v>0.9026382565498352</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.43935626745224</v>
+        <v>0.8714507818222046</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6513535380363464</v>
+        <v>0.4189072251319885</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7306404113769531</v>
+        <v>0.7417643666267395</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.696035623550415</v>
+        <v>0.87176114320755</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.8866230249404907</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.541606068611145</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9550797939300537</v>
+        <v>0.9396287202835083</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4018666446208954</v>
+        <v>0.7434103488922119</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7182374000549316</v>
+        <v>0.6240629553794861</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.991970419883728</v>
+        <v>0.693238377571106</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.916209876537323</v>
+        <v>0.9017964601516724</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.621003270149231</v>
+        <v>0.6253306269645691</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7956230044364929</v>
+        <v>0.4818030297756195</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9217507839202881</v>
+        <v>0.8884135484695435</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5972179174423218</v>
+        <v>0.4065719842910767</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8995890021324158</v>
+        <v>0.2716212868690491</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5511196255683899</v>
+        <v>0.7050638794898987</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7661871910095215</v>
+        <v>0.8698281645774841</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4133843183517456</v>
+        <v>0.5234548449516296</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8600553274154663</v>
+        <v>0.9090141654014587</v>
       </c>
     </row>
     <row r="105">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7499625086784363</v>
+        <v>0.5218071341514587</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8222122192382812</v>
+        <v>0.4824675321578979</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4826361536979675</v>
+        <v>0.7183748483657837</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5055290460586548</v>
+        <v>0.8202645778656006</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4757444560527802</v>
+        <v>0.8755195140838623</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6544837355613708</v>
+        <v>0.5759702920913696</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8473323583602905</v>
+        <v>0.8260113000869751</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.5598229169845581</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3901916146278381</v>
+        <v>0.9822683334350586</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2825218439102173</v>
+        <v>0.7958647012710571</v>
       </c>
     </row>
     <row r="115">
@@ -3647,14 +3647,14 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.3658490180969238</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8207299113273621</v>
+        <v>0.5405527949333191</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8745982050895691</v>
+        <v>0.8185004591941833</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3753398954868317</v>
+        <v>0.7410391569137573</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4739542901515961</v>
+        <v>0.5202771425247192</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5567277073860168</v>
+        <v>0.7536135315895081</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7852211594581604</v>
+        <v>0.7183748483657837</v>
       </c>
     </row>
     <row r="122">
@@ -3843,14 +3843,14 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6146852970123291</v>
+        <v>0.7068561315536499</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6094714403152466</v>
+        <v>0.9382665753364563</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6698758006095886</v>
+        <v>0.9396287202835083</v>
       </c>
     </row>
     <row r="125">
@@ -3927,14 +3927,14 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5386305451393127</v>
+        <v>0.7027085423469543</v>
       </c>
     </row>
     <row r="126">
@@ -3955,14 +3955,14 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.3542820513248444</v>
+        <v>0.8002530932426453</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.78190016746521</v>
       </c>
     </row>
     <row r="128">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.81972736120224</v>
+        <v>0.6480218768119812</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3767922818660736</v>
+        <v>0.9255683422088623</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6221538186073303</v>
+        <v>0.5330176949501038</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3975576460361481</v>
+        <v>0.476899117231369</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9096447825431824</v>
+        <v>0.5537548065185547</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9539830088615417</v>
+        <v>0.525666356086731</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9164506196975708</v>
+        <v>0.8837800621986389</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9091532826423645</v>
+        <v>0.8846608400344849</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3975576460361481</v>
+        <v>0.8085029125213623</v>
       </c>
     </row>
     <row r="137">
@@ -4263,14 +4263,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6464698910713196</v>
+        <v>0.3931438624858856</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5037597417831421</v>
+        <v>0.9396287202835083</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9259652495384216</v>
+        <v>0.4824675321578979</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4728617966175079</v>
+        <v>0.8026521801948547</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8960246443748474</v>
+        <v>0.9516820311546326</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.8273695707321167</v>
+        <v>0.5461583137512207</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4738113284111023</v>
+        <v>0.8355779647827148</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.961845338344574</v>
+        <v>0.8518474102020264</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.503071129322052</v>
+        <v>0.5919420123100281</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4442293643951416</v>
+        <v>0.7662844657897949</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.802747368812561</v>
+        <v>0.8573175668716431</v>
       </c>
     </row>
     <row r="148">
@@ -4571,14 +4571,14 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5051309466362</v>
+        <v>0.4324937760829926</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.9396287202835083</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7579325437545776</v>
+        <v>0.4014557898044586</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8209801912307739</v>
+        <v>0.942202091217041</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8687252402305603</v>
+        <v>0.9396287202835083</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.8292484283447266</v>
+        <v>0.6386474967002869</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6627504825592041</v>
+        <v>0.7183748483657837</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5080556273460388</v>
+        <v>0.9219722747802734</v>
       </c>
     </row>
     <row r="156">
@@ -4795,14 +4795,14 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4638935923576355</v>
+        <v>0.919510543346405</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8379144668579102</v>
+        <v>0.7663033008575439</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8674547076225281</v>
+        <v>0.8740378618240356</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5691381692886353</v>
+        <v>0.9517815709114075</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.535086989402771</v>
+        <v>0.7620349526405334</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6450055837631226</v>
+        <v>0.7298494577407837</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9707126021385193</v>
+        <v>0.7171149253845215</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.762016236782074</v>
+        <v>0.8762599229812622</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9541250467300415</v>
+        <v>0.945565402507782</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6326504945755005</v>
+        <v>0.9227603077888489</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.756725549697876</v>
+        <v>0.6198236346244812</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8571887612342834</v>
+        <v>0.9788339734077454</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4441292583942413</v>
+        <v>0.8475972414016724</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9350173473358154</v>
+        <v>0.6667072176933289</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8391321897506714</v>
+        <v>0.9700993299484253</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6487089991569519</v>
+        <v>0.4944741129875183</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8620923161506653</v>
+        <v>0.9490563869476318</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3102940917015076</v>
+        <v>0.7192525863647461</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8700049519538879</v>
+        <v>0.9396287202835083</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5933001041412354</v>
+        <v>0.9441013932228088</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5533017516136169</v>
+        <v>0.9008333683013916</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7095666527748108</v>
+        <v>0.8852112293243408</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.8735379576683044</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9563272595405579</v>
+        <v>0.4254888594150543</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.7031205892562866</v>
+        <v>0.542361855506897</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.415401965379715</v>
+        <v>0.8880558013916016</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9405987858772278</v>
+        <v>0.7417643666267395</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7944394946098328</v>
+        <v>0.5657519102096558</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.6645765900611877</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8612337708473206</v>
+        <v>0.4800272583961487</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5849875807762146</v>
+        <v>0.7417643666267395</v>
       </c>
     </row>
     <row r="187">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="E187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8031851053237915</v>
+        <v>0.8042595982551575</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8417440056800842</v>
+        <v>0.574513852596283</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.6958344578742981</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4475770890712738</v>
+        <v>0.4892328679561615</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9010603427886963</v>
+        <v>0.3971580862998962</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.8887050747871399</v>
+        <v>0.7711220383644104</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9135679006576538</v>
+        <v>0.4824675321578979</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.8767244219779968</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7528043389320374</v>
+        <v>0.4532919526100159</v>
       </c>
     </row>
     <row r="196">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5919,10 +5919,10 @@
         </is>
       </c>
       <c r="E196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9200946688652039</v>
+        <v>0.6610895991325378</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.682648241519928</v>
+        <v>0.7973528504371643</v>
       </c>
     </row>
     <row r="198">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5975,10 +5975,10 @@
         </is>
       </c>
       <c r="E198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9458490014076233</v>
+        <v>0.5364444255828857</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4914770424365997</v>
+        <v>0.6666873097419739</v>
       </c>
     </row>
     <row r="200">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9088032841682434</v>
+        <v>0.468911737203598</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.3798388838768005</v>
+        <v>0.7423975467681885</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7083860039710999</v>
+        <v>0.9016088247299194</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.6898691654205322</v>
+        <v>0.5958555936813354</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4441292583942413</v>
+        <v>0.6367362141609192</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8908553123474121</v>
+        <v>0.9822254180908203</v>
       </c>
     </row>
     <row r="206">
@@ -6195,14 +6195,14 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4643362760543823</v>
+        <v>0.5701010823249817</v>
       </c>
     </row>
     <row r="207">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.5195571780204773</v>
+        <v>0.7845883369445801</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E208" t="b">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8030292391777039</v>
+        <v>0.5030661225318909</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9706861972808838</v>
+        <v>0.9396287202835083</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8086134791374207</v>
+        <v>0.4946067035198212</v>
       </c>
     </row>
   </sheetData>
